--- a/Data pertemuan.xlsx
+++ b/Data pertemuan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -59,10 +59,16 @@
     <t>rumah abccc</t>
   </si>
   <si>
-    <t>2024-04-28</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>rumah brody</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>2024-06-01</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,15 +506,32 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>240522005</v>
+        <v>240525005</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>240601006</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Data pertemuan.xlsx
+++ b/Data pertemuan.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>Laporan Pertemuan</t>
+  </si>
   <si>
     <t>No</t>
   </si>
@@ -30,45 +33,6 @@
   </si>
   <si>
     <t>JAM</t>
-  </si>
-  <si>
-    <t>rumah abc</t>
-  </si>
-  <si>
-    <t>2024-05-12</t>
-  </si>
-  <si>
-    <t>jam 7 malam</t>
-  </si>
-  <si>
-    <t>rumah abcdef</t>
-  </si>
-  <si>
-    <t>2024-06-08</t>
-  </si>
-  <si>
-    <t>jam 8 malam</t>
-  </si>
-  <si>
-    <t>rumah abcccw</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>rumah abccc</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>rumah brody</t>
-  </si>
-  <si>
-    <t>2024-05-25</t>
-  </si>
-  <si>
-    <t>2024-06-01</t>
   </si>
 </sst>
 </file>
@@ -76,13 +40,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -107,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +382,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,125 +391,31 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>240512001</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>240512002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>240512003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>240513004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>240525005</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>240601006</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
